--- a/check-list.xlsx
+++ b/check-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\git\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A081-458D-4CE0-B416-4C13A52775B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E218F2-D6D4-409C-959E-9CB9EF32CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="84" windowWidth="11724" windowHeight="11880" firstSheet="1" activeTab="1" xr2:uid="{04956DE9-6FC6-443D-AE9E-3AB358AC59D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{04956DE9-6FC6-443D-AE9E-3AB358AC59D7}"/>
   </bookViews>
   <sheets>
     <sheet name="общаяя проверка формы" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="227">
   <si>
     <t>№</t>
   </si>
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,9 +1203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,13 +1224,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1651,10 +1654,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,10 +1901,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,10 +2140,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,10 +2379,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5776,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F61914-2A6D-484B-88BD-0CC6D9EB7132}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5792,23 +5795,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -5820,17 +5823,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="41"/>
       <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
@@ -5846,10 +5849,10 @@
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
@@ -5865,10 +5868,10 @@
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
@@ -5884,10 +5887,10 @@
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="5" t="s">
         <v>60</v>
       </c>
@@ -5903,10 +5906,10 @@
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
@@ -5920,10 +5923,10 @@
       <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="14" t="s">
         <v>60</v>
       </c>
@@ -5939,10 +5942,10 @@
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
@@ -5958,10 +5961,10 @@
       <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
@@ -5977,10 +5980,10 @@
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13"/>
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
@@ -5992,10 +5995,10 @@
       <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="12"/>
       <c r="F11" s="5"/>
       <c r="G11" s="8"/>
@@ -6007,10 +6010,10 @@
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
@@ -6026,10 +6029,10 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
@@ -6045,10 +6048,10 @@
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
@@ -6064,10 +6067,10 @@
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
@@ -6081,10 +6084,10 @@
       <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>55</v>
       </c>
@@ -6100,10 +6103,10 @@
       <c r="B17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="10" t="s">
         <v>59</v>
       </c>
@@ -6625,13 +6628,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C11:D11"/>
@@ -6646,6 +6642,13 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -6666,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98BF6F-0084-443D-BF66-67AD7816E543}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6679,23 +6682,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -6703,27 +6706,27 @@
       </c>
       <c r="I1" s="19">
         <f>COUNTIF(C3:D22,C2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(C3:D22,D2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -6733,10 +6736,10 @@
       <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
@@ -6750,10 +6753,10 @@
       <c r="B4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="5" t="s">
         <v>64</v>
       </c>
@@ -6769,10 +6772,10 @@
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
@@ -6786,10 +6789,10 @@
       <c r="B6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
@@ -6803,10 +6806,10 @@
       <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6820,10 +6823,10 @@
       <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
@@ -6837,10 +6840,10 @@
       <c r="B9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
@@ -6854,10 +6857,10 @@
       <c r="B10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
@@ -6871,10 +6874,10 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6888,10 +6891,10 @@
       <c r="B12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
@@ -6905,10 +6908,10 @@
       <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
@@ -6924,10 +6927,10 @@
       <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -6943,10 +6946,10 @@
       <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6962,10 +6965,10 @@
       <c r="B16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
@@ -6981,10 +6984,10 @@
       <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
@@ -7000,10 +7003,10 @@
       <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
@@ -7017,16 +7020,14 @@
       <c r="B19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="34" t="s">
         <v>29</v>
       </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.3">
@@ -7036,10 +7037,10 @@
       <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
@@ -7055,10 +7056,10 @@
       <c r="B21" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
@@ -7074,10 +7075,10 @@
       <c r="B22" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="10" t="s">
         <v>84</v>
       </c>
@@ -7088,12 +7089,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -7106,14 +7109,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -7134,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E759F637-E30E-4AF7-BBA2-27B518BA72A3}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7147,23 +7148,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -7171,27 +7172,27 @@
       </c>
       <c r="I1" s="19">
         <f>COUNTIF(C3:D22,C2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(C3:D22,D2)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -7201,10 +7202,10 @@
       <c r="B3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="5" t="s">
         <v>103</v>
       </c>
@@ -7220,10 +7221,10 @@
       <c r="B4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="5" t="s">
         <v>105</v>
       </c>
@@ -7239,10 +7240,10 @@
       <c r="B5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
@@ -7256,10 +7257,10 @@
       <c r="B6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
@@ -7273,10 +7274,10 @@
       <c r="B7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7290,10 +7291,10 @@
       <c r="B8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
@@ -7309,10 +7310,10 @@
       <c r="B9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
@@ -7326,10 +7327,10 @@
       <c r="B10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
@@ -7343,10 +7344,10 @@
       <c r="B11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7360,10 +7361,10 @@
       <c r="B12" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
@@ -7377,10 +7378,10 @@
       <c r="B13" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
@@ -7394,10 +7395,10 @@
       <c r="B14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -7411,10 +7412,10 @@
       <c r="B15" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7428,10 +7429,10 @@
       <c r="B16" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
@@ -7445,10 +7446,10 @@
       <c r="B17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
@@ -7462,10 +7463,10 @@
       <c r="B18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
@@ -7481,16 +7482,14 @@
       <c r="B19" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="34" t="s">
         <v>29</v>
       </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.3">
@@ -7500,10 +7499,10 @@
       <c r="B20" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
@@ -7519,10 +7518,10 @@
       <c r="B21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
@@ -7538,10 +7537,10 @@
       <c r="B22" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="10" t="s">
         <v>84</v>
       </c>
@@ -7552,12 +7551,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -7570,14 +7571,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D22" xr:uid="{C16DC89E-9DB1-406C-9DFC-AAC8DA718E4C}">
@@ -7597,7 +7596,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7609,23 +7608,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -7633,27 +7632,27 @@
       </c>
       <c r="I1" s="19">
         <f>COUNTIF(C3:D40,C2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(C3:D40,D2)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -7663,10 +7662,10 @@
       <c r="B3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="5" t="s">
         <v>109</v>
       </c>
@@ -7680,10 +7679,10 @@
       <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="5" t="s">
         <v>110</v>
       </c>
@@ -7697,10 +7696,10 @@
       <c r="B5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
@@ -7714,10 +7713,10 @@
       <c r="B6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
@@ -7731,10 +7730,10 @@
       <c r="B7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7748,10 +7747,10 @@
       <c r="B8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
@@ -7765,10 +7764,10 @@
       <c r="B9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
@@ -7782,10 +7781,10 @@
       <c r="B10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
@@ -7799,10 +7798,10 @@
       <c r="B11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5" t="s">
         <v>84</v>
       </c>
@@ -7818,10 +7817,10 @@
       <c r="B12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
@@ -7835,10 +7834,10 @@
       <c r="B13" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="5" t="s">
         <v>84</v>
       </c>
@@ -7854,10 +7853,10 @@
       <c r="B14" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -7871,10 +7870,10 @@
       <c r="B15" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7888,10 +7887,10 @@
       <c r="B16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
@@ -7905,10 +7904,10 @@
       <c r="B17" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
@@ -7922,10 +7921,10 @@
       <c r="B18" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
@@ -7939,10 +7938,10 @@
       <c r="B19" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
@@ -7958,10 +7957,10 @@
       <c r="B20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
@@ -7977,10 +7976,10 @@
       <c r="B21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
@@ -7996,10 +7995,10 @@
       <c r="B22" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="5" t="s">
         <v>29</v>
       </c>
@@ -8013,10 +8012,10 @@
       <c r="B23" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
@@ -8030,10 +8029,10 @@
       <c r="B24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="5" t="s">
         <v>29</v>
       </c>
@@ -8047,10 +8046,10 @@
       <c r="B25" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="5" t="s">
         <v>29</v>
       </c>
@@ -8064,10 +8063,10 @@
       <c r="B26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
@@ -8081,10 +8080,10 @@
       <c r="B27" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
@@ -8100,10 +8099,10 @@
       <c r="B28" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="5" t="s">
         <v>84</v>
       </c>
@@ -8119,10 +8118,10 @@
       <c r="B29" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="5" t="s">
         <v>84</v>
       </c>
@@ -8138,10 +8137,10 @@
       <c r="B30" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
@@ -8155,10 +8154,10 @@
       <c r="B31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
@@ -8172,10 +8171,10 @@
       <c r="B32" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="5" t="s">
         <v>29</v>
       </c>
@@ -8189,10 +8188,10 @@
       <c r="B33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
@@ -8206,10 +8205,10 @@
       <c r="B34" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
@@ -8223,10 +8222,10 @@
       <c r="B35" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="5" t="s">
         <v>84</v>
       </c>
@@ -8242,10 +8241,10 @@
       <c r="B36" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="5" t="s">
         <v>29</v>
       </c>
@@ -8259,16 +8258,14 @@
       <c r="B37" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="C37" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="34" t="s">
         <v>29</v>
       </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
@@ -8278,10 +8275,10 @@
       <c r="B38" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="5" t="s">
         <v>84</v>
       </c>
@@ -8297,10 +8294,10 @@
       <c r="B39" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="5" t="s">
         <v>84</v>
       </c>
@@ -8316,10 +8313,10 @@
       <c r="B40" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="10" t="s">
         <v>84</v>
       </c>
@@ -8330,6 +8327,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C8:D8"/>
@@ -8342,38 +8371,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -8393,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1CE12A-7801-4A5E-BCAE-45B97033318D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A15:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8406,23 +8403,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -8430,27 +8427,27 @@
       </c>
       <c r="I1" s="19">
         <f>COUNTIF(C3:D23,C2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4">
         <f>COUNTIF(C3:D23,D2)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -8460,10 +8457,10 @@
       <c r="B3" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="14" t="s">
         <v>167</v>
       </c>
@@ -8477,10 +8474,10 @@
       <c r="B4" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="14" t="s">
         <v>168</v>
       </c>
@@ -8494,10 +8491,10 @@
       <c r="B5" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
@@ -8511,10 +8508,10 @@
       <c r="B6" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
@@ -8528,10 +8525,10 @@
       <c r="B7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
@@ -8545,10 +8542,10 @@
       <c r="B8" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
@@ -8564,10 +8561,10 @@
       <c r="B9" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
@@ -8581,10 +8578,10 @@
       <c r="B10" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
@@ -8598,10 +8595,10 @@
       <c r="B11" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5" t="s">
         <v>84</v>
       </c>
@@ -8617,10 +8614,10 @@
       <c r="B12" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
@@ -8634,15 +8631,15 @@
       <c r="B13" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -8653,10 +8650,10 @@
       <c r="B14" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
@@ -8670,10 +8667,10 @@
       <c r="B15" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
@@ -8687,10 +8684,10 @@
       <c r="B16" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
@@ -8704,10 +8701,10 @@
       <c r="B17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
@@ -8721,10 +8718,10 @@
       <c r="B18" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
@@ -8738,10 +8735,10 @@
       <c r="B19" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
@@ -8757,16 +8754,14 @@
       <c r="B20" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="34" t="s">
         <v>29</v>
       </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
@@ -8776,10 +8771,10 @@
       <c r="B21" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
@@ -8795,10 +8790,10 @@
       <c r="B22" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="5" t="s">
         <v>84</v>
       </c>
@@ -8814,10 +8809,10 @@
       <c r="B23" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
@@ -8828,12 +8823,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -8846,15 +8844,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -8863,6 +8858,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A15:A23" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8871,7 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE8AB10-1159-482A-82A9-37420FCE3E31}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -8905,10 +8903,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -8916,24 +8914,24 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="26" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="47">
         <v>3</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -8941,52 +8939,52 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="25" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="25" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="26" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+      <c r="A13" s="47">
         <v>4</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -8994,52 +8992,52 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="25" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="25" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="26" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+      <c r="A20" s="47">
         <v>5</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>207</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -9047,66 +9045,66 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="25" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="25" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="25" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="26" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
+      <c r="A29" s="47">
         <v>6</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -9114,45 +9112,45 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="25" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="25" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="25" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="48"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="26" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="46">
+      <c r="A35" s="47">
         <v>7</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="50" t="s">
         <v>222</v>
       </c>
       <c r="C35" s="24" t="s">
@@ -9160,8 +9158,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="48"/>
-      <c r="B36" s="35"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="26" t="s">
         <v>224</v>
       </c>
@@ -9179,18 +9177,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="B13:B19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
